--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3459.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3459.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.669464650778042</v>
+        <v>1.130674839019775</v>
       </c>
       <c r="B1">
-        <v>1.77857831030865</v>
+        <v>1.924805521965027</v>
       </c>
       <c r="C1">
-        <v>1.938994946603751</v>
+        <v>5.501724720001221</v>
       </c>
       <c r="D1">
-        <v>2.81615743674118</v>
+        <v>0.7044932842254639</v>
       </c>
       <c r="E1">
-        <v>6.011674948242258</v>
+        <v>0.7881097197532654</v>
       </c>
     </row>
   </sheetData>
